--- a/BackLog/BACKLOG-DO-SISTEMA.xlsx
+++ b/BackLog/BACKLOG-DO-SISTEMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRSJESUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385A8849-2B17-4C53-AE9D-FA585AF32057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8D0DF6-CF60-455A-A927-28C95085618B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7630D9C9-16BA-43C1-B6A6-9BA0E8C724C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>FUNCIONALIDADE DE VISUALIZAR AS VENDAS E PRESTAÇÕES DE SERVIÇOS</t>
+  </si>
+  <si>
+    <t>FUNCIONALIDADE DE CADASTRAR USUÁRIOS</t>
   </si>
 </sst>
 </file>
@@ -190,7 +193,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -263,7 +295,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AE6689D-43C9-4C0D-BA01-EC64CA710765}" name="Tabela2" displayName="Tabela2" ref="B3:E14" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AE6689D-43C9-4C0D-BA01-EC64CA710765}" name="Tabela2" displayName="Tabela2" ref="B3:E15" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{59274A6B-DC47-48D7-B190-834F9D3ED559}" name="REQUISITOS"/>
     <tableColumn id="2" xr3:uid="{C6FC4E2F-48DB-4BB7-9ECE-9535C9EABD0F}" name="PRIORIDADE"/>
@@ -591,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7293FD-A9AD-4848-B565-53F224E7E3C4}">
-  <dimension ref="B3:H14"/>
+  <dimension ref="B3:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,8 +808,20 @@
       </c>
       <c r="E14" s="2"/>
     </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:E14">
+  <conditionalFormatting sqref="E4:E15">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"ATRASADO"</formula>
     </cfRule>
@@ -800,7 +844,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E14" xr:uid="{48A3D15B-9C3A-4316-B3EB-0AAB33F85FD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E15" xr:uid="{48A3D15B-9C3A-4316-B3EB-0AAB33F85FD6}">
       <formula1>$G$4:$G$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/BackLog/BACKLOG-DO-SISTEMA.xlsx
+++ b/BackLog/BACKLOG-DO-SISTEMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRSJESUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8D0DF6-CF60-455A-A927-28C95085618B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81026CA2-77CB-43E0-BC07-497C4562B51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7630D9C9-16BA-43C1-B6A6-9BA0E8C724C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>FUNCIONALIDADE DE CADASTRAR USUÁRIOS</t>
+  </si>
+  <si>
+    <t>FUNCIONALIDADE DE MONITORAMENTO DA PRODUÇÃO</t>
   </si>
 </sst>
 </file>
@@ -295,7 +298,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AE6689D-43C9-4C0D-BA01-EC64CA710765}" name="Tabela2" displayName="Tabela2" ref="B3:E15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AE6689D-43C9-4C0D-BA01-EC64CA710765}" name="Tabela2" displayName="Tabela2" ref="B3:E16" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{59274A6B-DC47-48D7-B190-834F9D3ED559}" name="REQUISITOS"/>
     <tableColumn id="2" xr3:uid="{C6FC4E2F-48DB-4BB7-9ECE-9535C9EABD0F}" name="PRIORIDADE"/>
@@ -623,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7293FD-A9AD-4848-B565-53F224E7E3C4}">
-  <dimension ref="B3:H15"/>
+  <dimension ref="B3:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,38 +816,49 @@
         <v>22</v>
       </c>
       <c r="C15" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2">
         <v>7</v>
       </c>
       <c r="E15" s="2"/>
     </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:E15">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="E4:E16">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"ATRASADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"ANDAMENTO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"ATRASADO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"ANDAMENTO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E15" xr:uid="{48A3D15B-9C3A-4316-B3EB-0AAB33F85FD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E16" xr:uid="{48A3D15B-9C3A-4316-B3EB-0AAB33F85FD6}">
       <formula1>$G$4:$G$6</formula1>
     </dataValidation>
   </dataValidations>
